--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_马丁组.xlsx
@@ -12,12 +12,12 @@
     <sheet name="数据修复" sheetId="3" r:id="rId3"/>
     <sheet name="(生产)需要修改的配置文件" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="112">
   <si>
     <t>No</t>
   </si>
@@ -252,166 +252,131 @@
     <t>责任人</t>
   </si>
   <si>
-    <t>墨菲、徐文瑞</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨菲、徐文瑞</t>
-  </si>
-  <si>
-    <t>墨菲</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>韩淑芳、徐文瑞</t>
+  </si>
+  <si>
+    <t>李萌</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+  </si>
+  <si>
+    <t>不通过</t>
   </si>
   <si>
     <t>贾金朋</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，点击右上角返回，均无弹窗保存提示，极易造成误操作，之前的数据全部白填</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，主页面点击右上角返回功能优化，需有弹窗提示，避免误操作</t>
   </si>
   <si>
     <t>房东APP</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>徐文瑞、张飞</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，“房源”，字段应该改为“小区及门牌”，避免歧义</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，跳新页面后点击右上角返回，均无弹窗保存提示，极易造成误操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，【城市】字段里“广州”还在，地段字段里“卢湾区”还在，需去除（需彻底同步一次商圈数据）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，“房源”字段改为“小区及门牌”，避免歧义</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，跳新页面后点击右上角返回功能优化，避免误操作</t>
   </si>
   <si>
     <t>APP房源录入恢复，没有“已录入小区”可选择，每次录入都需重新填写</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，栋号，单元号，房间号 应该限定为英文和数字，且限定字符长度（6位）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，栋号，单元号，房间号输入需限定为英文和数字，且字符长度最长6位</t>
   </si>
   <si>
     <t>APP房源录入恢复，小区+门牌（栋/单元/房间号）没有验证唯一性，可录入系统已有的重复数据</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>APP房源录入恢复，“公寓面积”文字改为“户型面积”，并且限制只可填写数字字符，数值范围5-300</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>APP房源录入恢复，合租【房间面积】需限制只可填写数字字符，数值范围小于等于“户型面积”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，所有【照片上传】字段，跳新页面后点击右上角返回，均无弹窗保存提示，极易造成误操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有【照片上传】字段，跳新页面后点击右上角返回功能优化</t>
   </si>
   <si>
     <t>APP房源录入恢复，整租【房型配置】文字改为“公共配置”，避免歧义</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>APP房源录入恢复，合租缺失【公共配置】字段，需补上</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，合租每个房间的配置字段，需修改为“房间配置”，避免歧义</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，所有配置字段，跳新页面后点击右上角返回，均无弹窗保存提示，极易造成误操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，经常跳出“请输入有效的定金！”弹窗</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，所有只能填写金额的地方，都没有做字符类型限制，可以填中文英文并保存成功</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，集中式大楼【电梯】需限制只可填写数字字符，数值范围1-99</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，没有做大楼名唯一性校验，系统已经创建过的大楼，还可以再录</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，集中式 大楼名称字符数未做限制，需限制为15个字符</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，合租每个房间的配置字段，需修改为【房间配置】，避免歧义</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有配置字段，跳新页面后点击右上角返回功能优化</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，修复录入时“请输入有效的定金！”弹窗频繁出现问题</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，所有只能填写金额的地方，需做字符类型限制</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式大楼【电梯】需限制只可填写数字字符，数值范围0-20</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，需做大楼名唯一性校验，系统已经创建过的大楼，不可以重复录入</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 大楼名称字符数需做限制，最多15个字符</t>
   </si>
   <si>
     <t>APP房源录入恢复，集中式 “房型别名”需设置为必填，并且与“房型”字段一起，做唯一性校验</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>APP房源录入恢复，集中式 房型录入，“公寓面积”文字改为“面积”，并且限制只可填写数字字符，数值范围5-300</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>APP房源录入恢复，集中式 房型录入，“房间数”需限制只可填写数字字符，数值范围1-999</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，集中式 房型录入，“房间数”字段数值，没有和实际填写的房间数做校验</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，集中式 房间配置，所有配置字段，跳新页面后点击右上角返回，均无弹窗保存提示，极易造成误操作</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房型录入，“房间数”字段数值，需和实际填写的房间数做校验</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房间配置，所有配置字段，跳新页面后点击右上角返回功能优化</t>
   </si>
   <si>
     <t>APP房源录入恢复，集中式 房间号录入，需限制只可填写数字字符及位数（4/5位），且前两位的数值小于等于大楼楼层数的数值</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，集中式 房间号录入，没有做唯一性校验，同一大楼，已经录过的房间号还可以再录</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，房源编辑/录入时，押金必须大于定金，否则不能保存</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP房源录入恢复，选择已录小区，再选择添加新小区，小区名称被带过去了</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP房源录入恢复，集中式 房间号录入，需做唯一性校验，同一大楼，已经录过的房间号还可以再录</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，房源编辑/录入时，押金必须大于等于定金，否则不能保存</t>
+  </si>
+  <si>
+    <t>APP房源录入恢复，选择已录小区，再选择添加新小区，小区名称错误填充</t>
   </si>
   <si>
     <t>房源相关日志埋点优化解决重复数据问题</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ALL</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>张飞</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>房态图统计慢SQL优化</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散式房态图，调整同一套合租房源下的房间展示方式，从视觉上突出整体感</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -486,51 +451,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -538,7 +467,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -735,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,55 +796,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1267,7 +1180,7 @@
   <dimension ref="A1:T215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1354,2203 +1267,2311 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A2" s="45">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="48">
+      <c r="E2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="27">
         <v>42627</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="48">
+      <c r="G2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="27">
         <v>42627</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="49" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="L2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="51"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="39"/>
     </row>
     <row r="3" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A3" s="45">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="48">
+      <c r="E3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="27">
         <v>42627</v>
       </c>
-      <c r="G3" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="48">
+      <c r="G3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="27">
         <v>42627</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="49" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="M3" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="39"/>
+    </row>
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="27">
+        <v>42627</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="27">
+        <v>42627</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49" t="s">
+      <c r="L4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="39"/>
-    </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A4" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="39"/>
+    </row>
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="48">
+      <c r="E5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="27">
         <v>42627</v>
       </c>
-      <c r="G4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="48">
+      <c r="G5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="27">
         <v>42627</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="49" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="39"/>
+    </row>
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="27">
+        <v>42627</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27">
+        <v>42627</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="N6" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+    </row>
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="27">
+        <v>42627</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27">
+        <v>42627</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49" t="s">
+      <c r="L7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="39"/>
-    </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A5" s="45">
-        <v>4</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="39"/>
+    </row>
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="48">
+      <c r="E8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="27">
         <v>42627</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="48">
+      <c r="G8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="27">
         <v>42627</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="49" t="s">
+      <c r="I8" s="26"/>
+      <c r="J8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="N8" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="24">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="27">
+        <v>42627</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="27">
+        <v>42627</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49" t="s">
+      <c r="L9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="39"/>
-    </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A6" s="45">
-        <v>5</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="48">
+      <c r="E10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="27">
         <v>42627</v>
       </c>
-      <c r="G6" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="48">
+      <c r="G10" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="27">
         <v>42627</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="49" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="M10" s="35"/>
+      <c r="N10" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="27">
+        <v>42627</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="27">
+        <v>42627</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="39"/>
-    </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A7" s="45">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="48">
-        <v>42627</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="48">
-        <v>42627</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="49" t="s">
+      <c r="L11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="39"/>
-    </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A8" s="45">
-        <v>7</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="48">
-        <v>42627</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="48">
-        <v>42627</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="39"/>
-    </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="48">
-        <v>42627</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="48">
-        <v>42627</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="39"/>
-    </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A10" s="45">
-        <v>9</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="48">
-        <v>42627</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="48">
-        <v>42627</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A11" s="45">
-        <v>10</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="48">
-        <v>42627</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="48">
-        <v>42627</v>
-      </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49" t="s">
+      <c r="M11" s="35"/>
+      <c r="N11" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="38"/>
       <c r="T11" s="39"/>
     </row>
     <row r="12" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A12" s="45">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="48">
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="27">
         <v>42627</v>
       </c>
-      <c r="G12" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="48">
+      <c r="G12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="27">
         <v>42627</v>
       </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="47" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49" t="s">
+      <c r="L12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O12" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="38"/>
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A13" s="45">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="48">
+      <c r="E13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="27">
         <v>42627</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="48">
+      <c r="G13" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="27">
         <v>42627</v>
       </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="47" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49" t="s">
+      <c r="L13" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O13" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
-      <c r="S13" s="51"/>
+      <c r="S13" s="38"/>
       <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A14" s="57">
+      <c r="A14" s="52">
         <v>13</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="48">
+      <c r="E14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="27">
         <v>42627</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="48">
+      <c r="G14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="27">
         <v>42627</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="47" t="s">
+      <c r="I14" s="26"/>
+      <c r="J14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49" t="s">
+      <c r="L14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O14" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
-      <c r="S14" s="51"/>
+      <c r="S14" s="38"/>
       <c r="T14" s="39"/>
     </row>
     <row r="15" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A15" s="57">
+      <c r="A15" s="52">
         <v>14</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="48">
+      <c r="E15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="27">
         <v>42627</v>
       </c>
-      <c r="G15" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="48">
+      <c r="G15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="27">
         <v>42627</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="47" t="s">
+      <c r="I15" s="26"/>
+      <c r="J15" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49" t="s">
+      <c r="L15" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O15" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P15" s="32"/>
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="51"/>
+      <c r="S15" s="38"/>
       <c r="T15" s="39"/>
     </row>
     <row r="16" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A16" s="57">
+      <c r="A16" s="52">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="48">
+      <c r="E16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="27">
         <v>42627</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="48">
+      <c r="G16" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="27">
         <v>42627</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="49" t="s">
+      <c r="L16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P16" s="32"/>
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
-      <c r="S16" s="51"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="39"/>
     </row>
     <row r="17" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A17" s="57">
+      <c r="A17" s="52">
         <v>16</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="48">
+      <c r="E17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="27">
         <v>42627</v>
       </c>
-      <c r="G17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="48">
+      <c r="G17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="27">
         <v>42627</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="47" t="s">
+      <c r="I17" s="26"/>
+      <c r="J17" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49" t="s">
+      <c r="L17" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
-      <c r="S17" s="51"/>
+      <c r="S17" s="38"/>
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A18" s="57">
+      <c r="A18" s="52">
         <v>17</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="48">
+      <c r="E18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="27">
         <v>42627</v>
       </c>
-      <c r="G18" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="48">
+      <c r="G18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="27">
         <v>42627</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="47" t="s">
+      <c r="I18" s="26"/>
+      <c r="J18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49" t="s">
+      <c r="L18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="51"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A19" s="57">
+      <c r="A19" s="52">
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="48">
+      <c r="E19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="27">
         <v>42633</v>
       </c>
-      <c r="G19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="48">
+      <c r="G19" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="27">
         <v>42633</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="49" t="s">
+      <c r="I19" s="26"/>
+      <c r="J19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="47" t="s">
+      <c r="K19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="47"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49" t="s">
+      <c r="L19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="51"/>
+      <c r="S19" s="38"/>
       <c r="T19" s="39"/>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A20" s="57">
+      <c r="A20" s="52">
         <v>19</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="48">
+      <c r="E20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="27">
         <v>42633</v>
       </c>
-      <c r="G20" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="48">
+      <c r="G20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="27">
         <v>42633</v>
       </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="49" t="s">
+      <c r="I20" s="26"/>
+      <c r="J20" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="47" t="s">
+      <c r="K20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49" t="s">
+      <c r="L20" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="51"/>
+      <c r="S20" s="38"/>
       <c r="T20" s="39"/>
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A21" s="57">
+      <c r="A21" s="52">
         <v>20</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="48">
+      <c r="E21" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="27">
         <v>42634</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="48">
+      <c r="G21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="27">
         <v>42634</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="49" t="s">
+      <c r="I21" s="26"/>
+      <c r="J21" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="K21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49" t="s">
+      <c r="L21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="27">
+        <v>42634</v>
+      </c>
+      <c r="O21" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
-      <c r="S21" s="51"/>
+      <c r="S21" s="38"/>
       <c r="T21" s="39"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A22" s="57">
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A22" s="52">
         <v>21</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="48">
+      <c r="D22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="27">
         <v>42634</v>
       </c>
-      <c r="G22" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="48">
+      <c r="G22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="27">
         <v>42634</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="47" t="s">
+      <c r="I22" s="26"/>
+      <c r="J22" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="47"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49" t="s">
+      <c r="L22" s="26"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
-      <c r="S22" s="51"/>
+      <c r="S22" s="38"/>
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A23" s="57">
-        <v>22</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="52">
+        <v>22</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="48">
+      <c r="E23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="27">
         <v>42634</v>
       </c>
-      <c r="G23" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="48">
+      <c r="G23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="27">
         <v>42634</v>
       </c>
-      <c r="I23" s="47"/>
-      <c r="J23" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="47" t="s">
+      <c r="I23" s="26"/>
+      <c r="J23" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49" t="s">
+      <c r="L23" s="26"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
-      <c r="S23" s="51"/>
+      <c r="S23" s="38"/>
       <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A24" s="57">
+      <c r="A24" s="52">
         <v>23</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="27">
+        <v>42634</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="27">
+        <v>42634</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="48">
-        <v>42634</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="48">
-        <v>42634</v>
-      </c>
-      <c r="I24" s="47"/>
-      <c r="J24" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="47"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49" t="s">
+      <c r="L24" s="26"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="32"/>
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
-      <c r="S24" s="51"/>
+      <c r="S24" s="38"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A25" s="57">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A25" s="52">
         <v>24</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="48">
+      <c r="D25" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="27">
         <v>42634</v>
       </c>
-      <c r="G25" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="48">
+      <c r="G25" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="27">
         <v>42634</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" s="47" t="s">
+      <c r="I25" s="26"/>
+      <c r="J25" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="47"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49" t="s">
+      <c r="L25" s="26"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="51"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="39"/>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A26" s="57">
+      <c r="A26" s="52">
         <v>25</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="48">
+      <c r="D26" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="27">
         <v>42634</v>
       </c>
-      <c r="G26" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="48">
+      <c r="G26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="27">
         <v>42634</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="47" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="47"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="32"/>
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
-      <c r="S26" s="51"/>
+      <c r="S26" s="38"/>
       <c r="T26" s="39"/>
     </row>
     <row r="27" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A27" s="57">
+      <c r="A27" s="52">
         <v>26</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="48">
+      <c r="D27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="27">
         <v>42634</v>
       </c>
-      <c r="G27" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="48">
+      <c r="G27" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="27">
         <v>42634</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="47" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49" t="s">
+      <c r="L27" s="26"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
       <c r="R27" s="32"/>
-      <c r="S27" s="51"/>
+      <c r="S27" s="38"/>
       <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A28" s="57">
+      <c r="A28" s="52">
         <v>27</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="48">
+      <c r="D28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="27">
         <v>42634</v>
       </c>
-      <c r="G28" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="48">
+      <c r="G28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="27">
         <v>42634</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K28" s="47" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49" t="s">
+      <c r="L28" s="26"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
-      <c r="S28" s="51"/>
+      <c r="S28" s="38"/>
       <c r="T28" s="39"/>
     </row>
     <row r="29" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A29" s="57">
+      <c r="A29" s="52">
         <v>28</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="48">
+      <c r="D29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="27">
         <v>42634</v>
       </c>
-      <c r="G29" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="48">
+      <c r="G29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="27">
         <v>42634</v>
       </c>
-      <c r="I29" s="47"/>
-      <c r="J29" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" s="47" t="s">
+      <c r="I29" s="26"/>
+      <c r="J29" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49" t="s">
+      <c r="L29" s="26"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="32"/>
-      <c r="S29" s="51"/>
+      <c r="S29" s="38"/>
       <c r="T29" s="39"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A30" s="57">
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A30" s="52">
         <v>29</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="47" t="s">
+      <c r="B30" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="48">
+      <c r="D30" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="27">
         <v>42634</v>
       </c>
-      <c r="G30" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="48">
+      <c r="G30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="27">
         <v>42634</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="47" t="s">
+      <c r="I30" s="26"/>
+      <c r="J30" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49" t="s">
+      <c r="L30" s="26"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
-      <c r="S30" s="51"/>
+      <c r="S30" s="38"/>
       <c r="T30" s="39"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A31" s="57">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A31" s="52">
         <v>30</v>
       </c>
-      <c r="B31" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="47" t="s">
+      <c r="B31" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="48">
+      <c r="D31" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="27">
         <v>42634</v>
       </c>
-      <c r="G31" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="48">
+      <c r="G31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="27">
         <v>42634</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K31" s="47" t="s">
+      <c r="I31" s="26"/>
+      <c r="J31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49" t="s">
+      <c r="L31" s="26"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="32"/>
-      <c r="S31" s="51"/>
+      <c r="S31" s="38"/>
       <c r="T31" s="39"/>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A32" s="57">
+      <c r="A32" s="52">
         <v>31</v>
       </c>
-      <c r="B32" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="47" t="s">
+      <c r="B32" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="48">
+      <c r="D32" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="27">
         <v>42634</v>
       </c>
-      <c r="G32" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="48">
+      <c r="G32" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="27">
         <v>42634</v>
       </c>
-      <c r="I32" s="47"/>
-      <c r="J32" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="47" t="s">
+      <c r="I32" s="26"/>
+      <c r="J32" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="47"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49" t="s">
+      <c r="L32" s="26"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
-      <c r="S32" s="51"/>
+      <c r="S32" s="38"/>
       <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A33" s="57">
+      <c r="A33" s="52">
         <v>32</v>
       </c>
-      <c r="B33" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="48">
+      <c r="D33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="27">
         <v>42634</v>
       </c>
-      <c r="G33" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="48">
+      <c r="G33" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="27">
         <v>42634</v>
       </c>
-      <c r="I33" s="47"/>
-      <c r="J33" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="47" t="s">
+      <c r="I33" s="26"/>
+      <c r="J33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="49" t="s">
+      <c r="L33" s="26"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
-      <c r="S33" s="51"/>
+      <c r="S33" s="38"/>
       <c r="T33" s="39"/>
     </row>
     <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A34" s="57">
+      <c r="A34" s="52">
         <v>33</v>
       </c>
-      <c r="B34" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="48">
+      <c r="D34" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="27">
         <v>42634</v>
       </c>
-      <c r="G34" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="48">
+      <c r="G34" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="27">
         <v>42634</v>
       </c>
-      <c r="I34" s="47"/>
-      <c r="J34" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" s="47" t="s">
+      <c r="I34" s="26"/>
+      <c r="J34" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="49" t="s">
+      <c r="L34" s="26"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P34" s="32"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
-      <c r="S34" s="51"/>
+      <c r="S34" s="38"/>
       <c r="T34" s="39"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A35" s="57">
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A35" s="52">
         <v>34</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="47" t="s">
+      <c r="B35" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="48">
+      <c r="D35" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="27">
         <v>42634</v>
       </c>
-      <c r="G35" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="48">
+      <c r="G35" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="27">
         <v>42634</v>
       </c>
-      <c r="I35" s="47"/>
-      <c r="J35" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" s="47" t="s">
+      <c r="I35" s="26"/>
+      <c r="J35" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="49" t="s">
+      <c r="L35" s="26"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P35" s="32"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
-      <c r="S35" s="51"/>
+      <c r="S35" s="38"/>
       <c r="T35" s="39"/>
     </row>
     <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A36" s="57">
+      <c r="A36" s="52">
         <v>35</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="48">
+      <c r="D36" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="27">
         <v>42634</v>
       </c>
-      <c r="G36" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="48">
+      <c r="G36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="27">
         <v>42634</v>
       </c>
-      <c r="I36" s="47"/>
-      <c r="J36" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="47" t="s">
+      <c r="I36" s="26"/>
+      <c r="J36" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="47"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="49" t="s">
+      <c r="L36" s="26"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
-      <c r="S36" s="51"/>
+      <c r="S36" s="38"/>
       <c r="T36" s="39"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A37" s="57">
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A37" s="52">
         <v>36</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="48">
+      <c r="D37" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="27">
         <v>42634</v>
       </c>
-      <c r="G37" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="48">
+      <c r="G37" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="27">
         <v>42634</v>
       </c>
-      <c r="I37" s="47"/>
-      <c r="J37" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37" s="47" t="s">
+      <c r="I37" s="26"/>
+      <c r="J37" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="49" t="s">
+      <c r="L37" s="26"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="32"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="32"/>
-      <c r="S37" s="51"/>
+      <c r="S37" s="38"/>
       <c r="T37" s="39"/>
     </row>
     <row r="38" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A38" s="57">
+      <c r="A38" s="52">
         <v>37</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" s="48">
+      <c r="D38" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="27">
         <v>42634</v>
       </c>
-      <c r="G38" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="48">
+      <c r="G38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="27">
         <v>42634</v>
       </c>
-      <c r="I38" s="47"/>
-      <c r="J38" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38" s="47" t="s">
+      <c r="I38" s="26"/>
+      <c r="J38" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="47"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="49" t="s">
+      <c r="L38" s="26"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
-      <c r="S38" s="51"/>
+      <c r="S38" s="38"/>
       <c r="T38" s="39"/>
     </row>
     <row r="39" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A39" s="57">
+      <c r="A39" s="52">
         <v>38</v>
       </c>
-      <c r="B39" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="47" t="s">
+      <c r="B39" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="48">
+      <c r="D39" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="27">
         <v>42634</v>
       </c>
-      <c r="G39" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="48">
+      <c r="G39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="27">
         <v>42634</v>
       </c>
-      <c r="I39" s="47"/>
-      <c r="J39" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39" s="47" t="s">
+      <c r="I39" s="26"/>
+      <c r="J39" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K39" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="47"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="49" t="s">
+      <c r="L39" s="26"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="32"/>
       <c r="Q39" s="32"/>
       <c r="R39" s="32"/>
-      <c r="S39" s="51"/>
+      <c r="S39" s="38"/>
       <c r="T39" s="39"/>
     </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A40" s="57">
+    <row r="40" spans="1:20" s="21" customFormat="1" ht="24">
+      <c r="A40" s="52">
         <v>39</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="47" t="s">
+      <c r="B40" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="48">
+      <c r="D40" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="27">
         <v>42634</v>
       </c>
-      <c r="G40" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="48">
+      <c r="G40" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="27">
         <v>42634</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="47" t="s">
+      <c r="I40" s="26"/>
+      <c r="J40" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="47"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="49" t="s">
+      <c r="L40" s="26"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
-      <c r="S40" s="51"/>
+      <c r="S40" s="38"/>
       <c r="T40" s="39"/>
     </row>
     <row r="41" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A41" s="57">
+      <c r="A41" s="52">
         <v>40</v>
       </c>
-      <c r="B41" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="48">
+      <c r="D41" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="27">
         <v>42634</v>
       </c>
-      <c r="G41" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="48">
+      <c r="G41" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="27">
         <v>42634</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41" s="47" t="s">
+      <c r="I41" s="26"/>
+      <c r="J41" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="47"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="49" t="s">
+      <c r="L41" s="26"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="32"/>
-      <c r="S41" s="51"/>
+      <c r="S41" s="38"/>
       <c r="T41" s="39"/>
     </row>
     <row r="42" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A42" s="57">
+      <c r="A42" s="52">
         <v>41</v>
       </c>
-      <c r="B42" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="48">
+      <c r="D42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="27">
         <v>42634</v>
       </c>
-      <c r="G42" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="48">
+      <c r="G42" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="27">
         <v>42634</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42" s="47" t="s">
+      <c r="I42" s="26"/>
+      <c r="J42" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="47"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="49" t="s">
+      <c r="L42" s="26"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
-      <c r="S42" s="51"/>
+      <c r="S42" s="38"/>
       <c r="T42" s="39"/>
     </row>
     <row r="43" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A43" s="57">
+      <c r="A43" s="52">
         <v>42</v>
       </c>
-      <c r="B43" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="48">
+      <c r="D43" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="27">
         <v>42634</v>
       </c>
-      <c r="G43" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="48">
+      <c r="G43" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="27">
         <v>42634</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43" s="47" t="s">
+      <c r="I43" s="26"/>
+      <c r="J43" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="47"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="49" t="s">
+      <c r="L43" s="26"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="32"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="32"/>
-      <c r="S43" s="51"/>
+      <c r="S43" s="38"/>
       <c r="T43" s="39"/>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A44" s="57">
+      <c r="A44" s="52">
         <v>43</v>
       </c>
-      <c r="B44" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="48">
+      <c r="D44" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="27">
         <v>42634</v>
       </c>
-      <c r="G44" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="48">
+      <c r="G44" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="27">
         <v>42634</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K44" s="47" t="s">
+      <c r="I44" s="26"/>
+      <c r="J44" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="47"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49" t="s">
+      <c r="L44" s="26"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P44" s="32"/>
       <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
-      <c r="S44" s="51"/>
+      <c r="S44" s="38"/>
       <c r="T44" s="39"/>
     </row>
     <row r="45" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A45" s="57">
+      <c r="A45" s="52">
         <v>44</v>
       </c>
-      <c r="B45" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="48">
+      <c r="D45" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="27">
         <v>42634</v>
       </c>
-      <c r="G45" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="48">
+      <c r="G45" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="27">
         <v>42634</v>
       </c>
-      <c r="I45" s="47"/>
-      <c r="J45" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K45" s="47" t="s">
+      <c r="I45" s="26"/>
+      <c r="J45" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="47"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49" t="s">
+      <c r="L45" s="26"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="32"/>
-      <c r="S45" s="51"/>
+      <c r="S45" s="38"/>
       <c r="T45" s="39"/>
     </row>
     <row r="46" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A46" s="57">
+      <c r="A46" s="52">
         <v>45</v>
       </c>
-      <c r="B46" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="48">
+      <c r="D46" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="27">
         <v>42634</v>
       </c>
-      <c r="G46" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" s="48">
+      <c r="G46" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="27">
         <v>42634</v>
       </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K46" s="47" t="s">
+      <c r="I46" s="26"/>
+      <c r="J46" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="47"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="49" t="s">
+      <c r="L46" s="26"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
-      <c r="S46" s="51"/>
+      <c r="S46" s="38"/>
       <c r="T46" s="39"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A47" s="57">
+    <row r="47" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A47" s="52">
         <v>46</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="48">
+      <c r="D47" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="27">
         <v>42634</v>
       </c>
-      <c r="G47" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="48">
+      <c r="G47" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="27">
         <v>42634</v>
       </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K47" s="47" t="s">
+      <c r="I47" s="26"/>
+      <c r="J47" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="47"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49" t="s">
+      <c r="L47" s="26"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
-      <c r="S47" s="51"/>
+      <c r="S47" s="38"/>
       <c r="T47" s="39"/>
     </row>
     <row r="48" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A48" s="57">
+      <c r="A48" s="52">
         <v>47</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="47" t="s">
+      <c r="B48" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="48">
+      <c r="D48" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="27">
         <v>42634</v>
       </c>
-      <c r="G48" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="48">
+      <c r="G48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="27">
         <v>42634</v>
       </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K48" s="47" t="s">
+      <c r="I48" s="26"/>
+      <c r="J48" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="47"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="49" t="s">
+      <c r="L48" s="26"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
-      <c r="S48" s="51"/>
+      <c r="S48" s="38"/>
       <c r="T48" s="39"/>
     </row>
     <row r="49" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A49" s="57">
+      <c r="A49" s="52">
         <v>48</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="47" t="s">
+      <c r="B49" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="48">
-        <v>42634</v>
-      </c>
-      <c r="G49" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="48">
-        <v>42634</v>
-      </c>
-      <c r="I49" s="47"/>
-      <c r="J49" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="K49" s="47" t="s">
+      <c r="D49" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="27">
+        <v>42625</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="27">
+        <v>42625</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L49" s="47"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="48"/>
-      <c r="O49" s="49" t="s">
+      <c r="L49" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M49" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="32"/>
-      <c r="S49" s="51"/>
+      <c r="S49" s="38"/>
       <c r="T49" s="39"/>
     </row>
     <row r="50" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A50" s="57">
+      <c r="A50" s="52">
         <v>49</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="47" t="s">
+      <c r="B50" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="48">
+      <c r="D50" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="27">
         <v>42625</v>
       </c>
-      <c r="G50" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H50" s="48">
+      <c r="G50" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="27">
         <v>42625</v>
       </c>
-      <c r="I50" s="47"/>
-      <c r="J50" s="49" t="s">
+      <c r="I50" s="26"/>
+      <c r="J50" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="47" t="s">
+      <c r="K50" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="47"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="49" t="s">
+      <c r="L50" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M50" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" s="27"/>
+      <c r="O50" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
-      <c r="S50" s="51"/>
+      <c r="S50" s="38"/>
       <c r="T50" s="39"/>
     </row>
     <row r="51" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A51" s="57">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="47" t="s">
+      <c r="B51" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="48">
-        <v>42625</v>
-      </c>
-      <c r="G51" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="48">
-        <v>42625</v>
-      </c>
-      <c r="I51" s="47"/>
-      <c r="J51" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="K51" s="47" t="s">
+      <c r="D51" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="27">
+        <v>42634</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="27">
+        <v>42634</v>
+      </c>
+      <c r="I51" s="26"/>
+      <c r="J51" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="49" t="s">
+      <c r="L51" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M51" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="27"/>
+      <c r="O51" s="35" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="32"/>
-      <c r="S51" s="51"/>
+      <c r="S51" s="38"/>
       <c r="T51" s="39"/>
     </row>
     <row r="52" spans="1:20" s="21" customFormat="1" ht="16.5">

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_马丁组.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -371,12 +371,27 @@
   <si>
     <t>分散式房态图，调整同一套合租房源下的房间展示方式，从视觉上突出整体感</t>
   </si>
+  <si>
+    <t>谷黎娜</t>
+  </si>
+  <si>
+    <t>集中式房源录入房间号时，房间号位数校验报错提示文案修正</t>
+  </si>
+  <si>
+    <t>bug fix</t>
+  </si>
+  <si>
+    <t>存在首期款的蘑菇宝签约单，房态图取租金欠款的费用项目除租金和房屋押金外需增加首期款</t>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -469,6 +484,56 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -663,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,6 +849,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,41 +897,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1177,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T215"/>
+  <dimension ref="A1:T211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1192,13 +1341,13 @@
     <col min="5" max="5" width="9.75" style="22" customWidth="1"/>
     <col min="6" max="6" width="10.75" style="23" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="23" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="23" customWidth="1"/>
     <col min="10" max="11" width="11.875" style="22" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="22" customWidth="1"/>
     <col min="13" max="13" width="10" style="23" customWidth="1"/>
     <col min="14" max="14" width="14.375" style="23" customWidth="1"/>
-    <col min="15" max="15" width="11" style="23" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="23" customWidth="1"/>
     <col min="16" max="16" width="12" style="24" customWidth="1"/>
     <col min="17" max="17" width="17" style="24" customWidth="1"/>
     <col min="18" max="18" width="14.125" style="24" customWidth="1"/>
@@ -1207,62 +1356,62 @@
     <col min="21" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="20" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:20" s="20" customFormat="1" ht="27">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="40" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1270,7 +1419,7 @@
       <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -1310,9 +1459,9 @@
       <c r="O2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
       <c r="S2" s="38"/>
       <c r="T2" s="39"/>
     </row>
@@ -1320,7 +1469,7 @@
       <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -1360,9 +1509,9 @@
       <c r="O3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
       <c r="S3" s="38"/>
       <c r="T3" s="39"/>
     </row>
@@ -1370,7 +1519,7 @@
       <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -1410,9 +1559,9 @@
       <c r="O4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
     </row>
@@ -1420,7 +1569,7 @@
       <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -1452,7 +1601,7 @@
         <v>73</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N5" s="27">
         <v>42634</v>
@@ -1460,9 +1609,9 @@
       <c r="O5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
     </row>
@@ -1470,7 +1619,7 @@
       <c r="A6" s="25">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -1510,9 +1659,9 @@
       <c r="O6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
     </row>
@@ -1520,7 +1669,7 @@
       <c r="A7" s="25">
         <v>6</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="43" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -1560,9 +1709,9 @@
       <c r="O7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="38"/>
       <c r="T7" s="39"/>
     </row>
@@ -1570,7 +1719,7 @@
       <c r="A8" s="25">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -1610,9 +1759,9 @@
       <c r="O8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
       <c r="S8" s="38"/>
       <c r="T8" s="39"/>
     </row>
@@ -1620,7 +1769,7 @@
       <c r="A9" s="25">
         <v>8</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -1660,9 +1809,9 @@
       <c r="O9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
       <c r="S9" s="38"/>
       <c r="T9" s="39"/>
     </row>
@@ -1670,7 +1819,7 @@
       <c r="A10" s="25">
         <v>9</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="44" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -1701,16 +1850,18 @@
       <c r="L10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="35"/>
+      <c r="M10" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N10" s="27">
         <v>42634</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
       <c r="S10" s="38"/>
       <c r="T10" s="39"/>
     </row>
@@ -1718,7 +1869,7 @@
       <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -1749,7 +1900,9 @@
       <c r="L11" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="35"/>
+      <c r="M11" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N11" s="27">
         <v>42634</v>
       </c>
@@ -1758,7 +1911,7 @@
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
-      <c r="R11" s="46"/>
+      <c r="R11" s="42"/>
       <c r="S11" s="38"/>
       <c r="T11" s="39"/>
     </row>
@@ -1766,7 +1919,7 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="26" t="s">
@@ -1797,7 +1950,9 @@
       <c r="L12" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N12" s="27">
         <v>42634</v>
       </c>
@@ -1806,7 +1961,7 @@
       </c>
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
-      <c r="R12" s="46"/>
+      <c r="R12" s="42"/>
       <c r="S12" s="38"/>
       <c r="T12" s="39"/>
     </row>
@@ -1814,7 +1969,7 @@
       <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="47" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="26" t="s">
@@ -1845,7 +2000,9 @@
       <c r="L13" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="35"/>
+      <c r="M13" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N13" s="27">
         <v>42634</v>
       </c>
@@ -1859,10 +2016,10 @@
       <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A14" s="52">
+      <c r="A14" s="48">
         <v>13</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="26" t="s">
@@ -1893,7 +2050,9 @@
       <c r="L14" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="35"/>
+      <c r="M14" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N14" s="27">
         <v>42634</v>
       </c>
@@ -1907,10 +2066,10 @@
       <c r="T14" s="39"/>
     </row>
     <row r="15" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A15" s="52">
+      <c r="A15" s="48">
         <v>14</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="26" t="s">
@@ -1941,7 +2100,9 @@
       <c r="L15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="35"/>
+      <c r="M15" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N15" s="27">
         <v>42634</v>
       </c>
@@ -1955,10 +2116,10 @@
       <c r="T15" s="39"/>
     </row>
     <row r="16" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A16" s="52">
+      <c r="A16" s="48">
         <v>15</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -1989,7 +2150,9 @@
       <c r="L16" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="35"/>
+      <c r="M16" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N16" s="27">
         <v>42634</v>
       </c>
@@ -2003,10 +2166,10 @@
       <c r="T16" s="39"/>
     </row>
     <row r="17" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A17" s="52">
+      <c r="A17" s="48">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="47" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="26" t="s">
@@ -2037,7 +2200,9 @@
       <c r="L17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="35"/>
+      <c r="M17" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N17" s="27">
         <v>42634</v>
       </c>
@@ -2051,10 +2216,10 @@
       <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A18" s="52">
+      <c r="A18" s="48">
         <v>17</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -2085,7 +2250,9 @@
       <c r="L18" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="35"/>
+      <c r="M18" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N18" s="27">
         <v>42634</v>
       </c>
@@ -2099,10 +2266,10 @@
       <c r="T18" s="39"/>
     </row>
     <row r="19" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A19" s="52">
+      <c r="A19" s="48">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="50" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="26" t="s">
@@ -2133,7 +2300,9 @@
       <c r="L19" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="35"/>
+      <c r="M19" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N19" s="27">
         <v>42634</v>
       </c>
@@ -2147,10 +2316,10 @@
       <c r="T19" s="39"/>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A20" s="52">
+      <c r="A20" s="48">
         <v>19</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -2181,7 +2350,9 @@
       <c r="L20" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="35"/>
+      <c r="M20" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N20" s="27">
         <v>42634</v>
       </c>
@@ -2195,10 +2366,10 @@
       <c r="T20" s="39"/>
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A21" s="52">
+      <c r="A21" s="48">
         <v>20</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -2229,7 +2400,9 @@
       <c r="L21" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="35"/>
+      <c r="M21" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="N21" s="27">
         <v>42634</v>
       </c>
@@ -2243,10 +2416,10 @@
       <c r="T21" s="39"/>
     </row>
     <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A22" s="52">
+      <c r="A22" s="48">
         <v>21</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="47" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="26" t="s">
@@ -2274,9 +2447,15 @@
       <c r="K22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="27"/>
+      <c r="L22" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" s="27">
+        <v>42635</v>
+      </c>
       <c r="O22" s="35" t="s">
         <v>24</v>
       </c>
@@ -2287,10 +2466,10 @@
       <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A23" s="52">
-        <v>22</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="48">
+        <v>22</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -2318,9 +2497,15 @@
       <c r="K23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="27"/>
+      <c r="L23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" s="27">
+        <v>42635</v>
+      </c>
       <c r="O23" s="35" t="s">
         <v>24</v>
       </c>
@@ -2331,10 +2516,10 @@
       <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A24" s="52">
+      <c r="A24" s="48">
         <v>23</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="47" t="s">
         <v>82</v>
       </c>
       <c r="C24" s="26" t="s">
@@ -2362,9 +2547,15 @@
       <c r="K24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="27"/>
+      <c r="L24" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="27">
+        <v>42635</v>
+      </c>
       <c r="O24" s="35" t="s">
         <v>24</v>
       </c>
@@ -2374,55 +2565,61 @@
       <c r="S24" s="38"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A25" s="52">
+    <row r="25" spans="1:20" s="64" customFormat="1" ht="16.5">
+      <c r="A25" s="56">
         <v>24</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="27">
+      <c r="E25" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="59">
         <v>42634</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="G25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="59">
         <v>42634</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="35" t="s">
+      <c r="I25" s="58"/>
+      <c r="J25" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="35" t="s">
+      <c r="L25" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="63"/>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A26" s="52">
+      <c r="A26" s="48">
         <v>25</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="47" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -2450,9 +2647,15 @@
       <c r="K26" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="27"/>
+      <c r="L26" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="27">
+        <v>42635</v>
+      </c>
       <c r="O26" s="35" t="s">
         <v>24</v>
       </c>
@@ -2463,10 +2666,10 @@
       <c r="T26" s="39"/>
     </row>
     <row r="27" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A27" s="52">
+      <c r="A27" s="48">
         <v>26</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="47" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -2494,9 +2697,15 @@
       <c r="K27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="27"/>
+      <c r="L27" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" s="27">
+        <v>42635</v>
+      </c>
       <c r="O27" s="35" t="s">
         <v>24</v>
       </c>
@@ -2507,10 +2716,10 @@
       <c r="T27" s="39"/>
     </row>
     <row r="28" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A28" s="52">
+      <c r="A28" s="48">
         <v>27</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -2538,9 +2747,15 @@
       <c r="K28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="27"/>
+      <c r="L28" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M28" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" s="27">
+        <v>42635</v>
+      </c>
       <c r="O28" s="35" t="s">
         <v>24</v>
       </c>
@@ -2550,55 +2765,61 @@
       <c r="S28" s="38"/>
       <c r="T28" s="39"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A29" s="52">
+    <row r="29" spans="1:20" s="64" customFormat="1" ht="24">
+      <c r="A29" s="56">
         <v>28</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="27">
+      <c r="E29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="59">
         <v>42634</v>
       </c>
-      <c r="G29" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="27">
+      <c r="G29" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="59">
         <v>42634</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="35" t="s">
+      <c r="I29" s="58"/>
+      <c r="J29" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="35" t="s">
+      <c r="L29" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O29" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="39"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="63"/>
     </row>
     <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A30" s="52">
+      <c r="A30" s="48">
         <v>29</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C30" s="26" t="s">
@@ -2626,9 +2847,15 @@
       <c r="K30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="27"/>
+      <c r="L30" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" s="27">
+        <v>42635</v>
+      </c>
       <c r="O30" s="35" t="s">
         <v>24</v>
       </c>
@@ -2639,10 +2866,10 @@
       <c r="T30" s="39"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A31" s="52">
+      <c r="A31" s="48">
         <v>30</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="47" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -2670,9 +2897,15 @@
       <c r="K31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="27"/>
+      <c r="L31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="27">
+        <v>42635</v>
+      </c>
       <c r="O31" s="35" t="s">
         <v>24</v>
       </c>
@@ -2683,10 +2916,10 @@
       <c r="T31" s="39"/>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A32" s="52">
+      <c r="A32" s="48">
         <v>31</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="47" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -2714,9 +2947,15 @@
       <c r="K32" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L32" s="26"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="27"/>
+      <c r="L32" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" s="27">
+        <v>42635</v>
+      </c>
       <c r="O32" s="35" t="s">
         <v>24</v>
       </c>
@@ -2727,10 +2966,10 @@
       <c r="T32" s="39"/>
     </row>
     <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A33" s="52">
+      <c r="A33" s="48">
         <v>32</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="47" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="26" t="s">
@@ -2758,9 +2997,15 @@
       <c r="K33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="27"/>
+      <c r="L33" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" s="27">
+        <v>42635</v>
+      </c>
       <c r="O33" s="35" t="s">
         <v>24</v>
       </c>
@@ -2771,10 +3016,10 @@
       <c r="T33" s="39"/>
     </row>
     <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A34" s="52">
+      <c r="A34" s="48">
         <v>33</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -2802,9 +3047,15 @@
       <c r="K34" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="27"/>
+      <c r="L34" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M34" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="27">
+        <v>42635</v>
+      </c>
       <c r="O34" s="35" t="s">
         <v>24</v>
       </c>
@@ -2814,55 +3065,61 @@
       <c r="S34" s="38"/>
       <c r="T34" s="39"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A35" s="52">
+    <row r="35" spans="1:20" s="74" customFormat="1" ht="16.5">
+      <c r="A35" s="66">
         <v>34</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="E35" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="69">
         <v>42634</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="27">
+      <c r="G35" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="69">
         <v>42634</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="35" t="s">
+      <c r="I35" s="68"/>
+      <c r="J35" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="27"/>
+      <c r="L35" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="27">
+        <v>42635</v>
+      </c>
       <c r="O35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="73"/>
     </row>
     <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A36" s="52">
+      <c r="A36" s="48">
         <v>35</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="47" t="s">
         <v>94</v>
       </c>
       <c r="C36" s="26" t="s">
@@ -2890,9 +3147,15 @@
       <c r="K36" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="27"/>
+      <c r="L36" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="27">
+        <v>42635</v>
+      </c>
       <c r="O36" s="35" t="s">
         <v>24</v>
       </c>
@@ -2902,55 +3165,61 @@
       <c r="S36" s="38"/>
       <c r="T36" s="39"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A37" s="52">
+    <row r="37" spans="1:20" s="64" customFormat="1" ht="16.5">
+      <c r="A37" s="56">
         <v>36</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="E37" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="59">
         <v>42634</v>
       </c>
-      <c r="G37" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="27">
+      <c r="G37" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="59">
         <v>42634</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="35" t="s">
+      <c r="I37" s="58"/>
+      <c r="J37" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="26" t="s">
+      <c r="K37" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="35" t="s">
+      <c r="L37" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M37" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O37" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="39"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="63"/>
     </row>
     <row r="38" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A38" s="52">
+      <c r="A38" s="48">
         <v>37</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="47" t="s">
         <v>96</v>
       </c>
       <c r="C38" s="26" t="s">
@@ -2978,9 +3247,15 @@
       <c r="K38" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="27"/>
+      <c r="L38" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" s="27">
+        <v>42635</v>
+      </c>
       <c r="O38" s="35" t="s">
         <v>24</v>
       </c>
@@ -2990,99 +3265,111 @@
       <c r="S38" s="38"/>
       <c r="T38" s="39"/>
     </row>
-    <row r="39" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A39" s="52">
+    <row r="39" spans="1:20" s="64" customFormat="1" ht="16.5">
+      <c r="A39" s="56">
         <v>38</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="27">
+      <c r="E39" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="59">
         <v>42634</v>
       </c>
-      <c r="G39" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="27">
+      <c r="G39" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="59">
         <v>42634</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="35" t="s">
+      <c r="I39" s="58"/>
+      <c r="J39" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="35" t="s">
+      <c r="L39" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O39" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="39"/>
-    </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A40" s="52">
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="63"/>
+    </row>
+    <row r="40" spans="1:20" s="64" customFormat="1" ht="24">
+      <c r="A40" s="56">
         <v>39</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="27">
+      <c r="E40" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="59">
         <v>42634</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="27">
+      <c r="G40" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="59">
         <v>42634</v>
       </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="35" t="s">
+      <c r="I40" s="58"/>
+      <c r="J40" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K40" s="26" t="s">
+      <c r="K40" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="35" t="s">
+      <c r="L40" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M40" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O40" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="39"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="63"/>
     </row>
     <row r="41" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A41" s="52">
+      <c r="A41" s="48">
         <v>40</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="47" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="26" t="s">
@@ -3110,9 +3397,15 @@
       <c r="K41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="27"/>
+      <c r="L41" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M41" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="27">
+        <v>42635</v>
+      </c>
       <c r="O41" s="35" t="s">
         <v>24</v>
       </c>
@@ -3123,10 +3416,10 @@
       <c r="T41" s="39"/>
     </row>
     <row r="42" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A42" s="52">
+      <c r="A42" s="48">
         <v>41</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -3154,9 +3447,15 @@
       <c r="K42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="27"/>
+      <c r="L42" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="27">
+        <v>42635</v>
+      </c>
       <c r="O42" s="35" t="s">
         <v>24</v>
       </c>
@@ -3167,10 +3466,10 @@
       <c r="T42" s="39"/>
     </row>
     <row r="43" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A43" s="52">
+      <c r="A43" s="48">
         <v>42</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="47" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -3198,9 +3497,15 @@
       <c r="K43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="27"/>
+      <c r="L43" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N43" s="27">
+        <v>42635</v>
+      </c>
       <c r="O43" s="35" t="s">
         <v>24</v>
       </c>
@@ -3211,10 +3516,10 @@
       <c r="T43" s="39"/>
     </row>
     <row r="44" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A44" s="52">
+      <c r="A44" s="48">
         <v>43</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="26" t="s">
@@ -3242,9 +3547,15 @@
       <c r="K44" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="27"/>
+      <c r="L44" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" s="27">
+        <v>42635</v>
+      </c>
       <c r="O44" s="35" t="s">
         <v>24</v>
       </c>
@@ -3255,10 +3566,10 @@
       <c r="T44" s="39"/>
     </row>
     <row r="45" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A45" s="52">
+      <c r="A45" s="48">
         <v>44</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="47" t="s">
         <v>103</v>
       </c>
       <c r="C45" s="26" t="s">
@@ -3286,9 +3597,15 @@
       <c r="K45" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="27"/>
+      <c r="L45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="27">
+        <v>42635</v>
+      </c>
       <c r="O45" s="35" t="s">
         <v>24</v>
       </c>
@@ -3299,10 +3616,10 @@
       <c r="T45" s="39"/>
     </row>
     <row r="46" spans="1:20" s="21" customFormat="1" ht="24">
-      <c r="A46" s="52">
+      <c r="A46" s="48">
         <v>45</v>
       </c>
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="47" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="26" t="s">
@@ -3330,9 +3647,15 @@
       <c r="K46" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="27"/>
+      <c r="L46" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46" s="27">
+        <v>42635</v>
+      </c>
       <c r="O46" s="35" t="s">
         <v>24</v>
       </c>
@@ -3342,99 +3665,111 @@
       <c r="S46" s="38"/>
       <c r="T46" s="39"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A47" s="52">
+    <row r="47" spans="1:20" s="83" customFormat="1" ht="16.5">
+      <c r="A47" s="75">
         <v>46</v>
       </c>
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="27">
+      <c r="E47" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="78">
         <v>42634</v>
       </c>
-      <c r="G47" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="27">
+      <c r="G47" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="78">
         <v>42634</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="35" t="s">
+      <c r="I47" s="77"/>
+      <c r="J47" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="26" t="s">
+      <c r="K47" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="L47" s="26"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="35" t="s">
+      <c r="L47" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" s="78">
+        <v>42635</v>
+      </c>
+      <c r="O47" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="39"/>
-    </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A48" s="52">
+      <c r="P47" s="80"/>
+      <c r="Q47" s="80"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="82"/>
+    </row>
+    <row r="48" spans="1:20" s="64" customFormat="1" ht="16.5">
+      <c r="A48" s="56">
         <v>47</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="27">
+      <c r="E48" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="59">
         <v>42634</v>
       </c>
-      <c r="G48" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="27">
+      <c r="G48" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="59">
         <v>42634</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="35" t="s">
+      <c r="I48" s="58"/>
+      <c r="J48" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="K48" s="26" t="s">
+      <c r="K48" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="L48" s="26"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="35" t="s">
+      <c r="L48" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="M48" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N48" s="59">
+        <v>42635</v>
+      </c>
+      <c r="O48" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="39"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="61"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="63"/>
     </row>
     <row r="49" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A49" s="52">
+      <c r="A49" s="48">
         <v>48</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="47" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="26" t="s">
@@ -3468,7 +3803,9 @@
       <c r="M49" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="N49" s="27"/>
+      <c r="N49" s="27">
+        <v>42635</v>
+      </c>
       <c r="O49" s="35" t="s">
         <v>24</v>
       </c>
@@ -3479,10 +3816,10 @@
       <c r="T49" s="39"/>
     </row>
     <row r="50" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A50" s="52">
+      <c r="A50" s="48">
         <v>49</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="47" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="26" t="s">
@@ -3516,7 +3853,9 @@
       <c r="M50" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="N50" s="27"/>
+      <c r="N50" s="27">
+        <v>42635</v>
+      </c>
       <c r="O50" s="35" t="s">
         <v>24</v>
       </c>
@@ -3564,7 +3903,9 @@
       <c r="M51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="N51" s="27"/>
+      <c r="N51" s="27">
+        <v>42635</v>
+      </c>
       <c r="O51" s="35" t="s">
         <v>24</v>
       </c>
@@ -3575,43 +3916,99 @@
       <c r="T51" s="39"/>
     </row>
     <row r="52" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A52" s="25"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="27">
+        <v>42634</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="27">
+        <v>42634</v>
+      </c>
       <c r="I52" s="26"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="35"/>
+      <c r="J52" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M52" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" s="27">
+        <v>42635</v>
+      </c>
+      <c r="O52" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="38"/>
       <c r="T52" s="39"/>
     </row>
-    <row r="53" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A53" s="25"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+    <row r="53" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="27">
+        <v>42635</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="27">
+        <v>42635</v>
+      </c>
       <c r="I53" s="26"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="35"/>
+      <c r="J53" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M53" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="27">
+        <v>42635</v>
+      </c>
+      <c r="O53" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="32"/>
@@ -3619,136 +4016,132 @@
       <c r="T53" s="39"/>
     </row>
     <row r="54" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A54" s="25"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="35"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="30"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
-      <c r="S54" s="38"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="39"/>
     </row>
     <row r="55" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A55" s="25"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="35"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="30"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="32"/>
-      <c r="S55" s="38"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="39"/>
     </row>
-    <row r="56" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A56" s="25"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="26"/>
+    <row r="56" spans="1:20" ht="16.5">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="35"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="33"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="39"/>
-    </row>
-    <row r="57" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A57" s="25"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="26"/>
+      <c r="S56" s="33"/>
+    </row>
+    <row r="57" spans="1:20" ht="16.5">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="35"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="33"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="32"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="39"/>
-    </row>
-    <row r="58" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="29"/>
+      <c r="S57" s="33"/>
+    </row>
+    <row r="58" spans="1:20" ht="16.5">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="32"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="30"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="33"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="39"/>
-    </row>
-    <row r="59" spans="1:20" s="21" customFormat="1" ht="16.5">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="29"/>
+      <c r="S58" s="33"/>
+    </row>
+    <row r="59" spans="1:20" ht="16.5">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="30"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="33"/>
       <c r="P59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="32"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="39"/>
+      <c r="S59" s="33"/>
     </row>
     <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="32"/>
@@ -4826,7 +5219,7 @@
       <c r="B111" s="33"/>
       <c r="C111" s="32"/>
       <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="E111" s="32"/>
       <c r="F111" s="34"/>
       <c r="G111" s="32"/>
       <c r="H111" s="34"/>
@@ -4847,7 +5240,7 @@
       <c r="B112" s="33"/>
       <c r="C112" s="32"/>
       <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="E112" s="32"/>
       <c r="F112" s="34"/>
       <c r="G112" s="32"/>
       <c r="H112" s="34"/>
@@ -4868,7 +5261,7 @@
       <c r="B113" s="33"/>
       <c r="C113" s="32"/>
       <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="E113" s="32"/>
       <c r="F113" s="34"/>
       <c r="G113" s="32"/>
       <c r="H113" s="34"/>
@@ -4889,7 +5282,7 @@
       <c r="B114" s="33"/>
       <c r="C114" s="32"/>
       <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="E114" s="32"/>
       <c r="F114" s="34"/>
       <c r="G114" s="32"/>
       <c r="H114" s="34"/>
@@ -4947,11 +5340,11 @@
       <c r="R116" s="32"/>
       <c r="S116" s="33"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19">
       <c r="A117" s="32"/>
       <c r="B117" s="33"/>
       <c r="C117" s="32"/>
-      <c r="D117" s="26"/>
+      <c r="D117" s="32"/>
       <c r="E117" s="32"/>
       <c r="F117" s="34"/>
       <c r="G117" s="32"/>
@@ -4968,11 +5361,11 @@
       <c r="R117" s="32"/>
       <c r="S117" s="33"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5">
+    <row r="118" spans="1:19">
       <c r="A118" s="32"/>
       <c r="B118" s="33"/>
       <c r="C118" s="32"/>
-      <c r="D118" s="26"/>
+      <c r="D118" s="32"/>
       <c r="E118" s="32"/>
       <c r="F118" s="34"/>
       <c r="G118" s="32"/>
@@ -4989,11 +5382,11 @@
       <c r="R118" s="32"/>
       <c r="S118" s="33"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5">
+    <row r="119" spans="1:19">
       <c r="A119" s="32"/>
       <c r="B119" s="33"/>
       <c r="C119" s="32"/>
-      <c r="D119" s="26"/>
+      <c r="D119" s="32"/>
       <c r="E119" s="32"/>
       <c r="F119" s="34"/>
       <c r="G119" s="32"/>
@@ -5010,11 +5403,11 @@
       <c r="R119" s="32"/>
       <c r="S119" s="33"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5">
+    <row r="120" spans="1:19">
       <c r="A120" s="32"/>
       <c r="B120" s="33"/>
       <c r="C120" s="32"/>
-      <c r="D120" s="26"/>
+      <c r="D120" s="32"/>
       <c r="E120" s="32"/>
       <c r="F120" s="34"/>
       <c r="G120" s="32"/>
@@ -6223,9 +6616,6 @@
       <c r="M177" s="32"/>
       <c r="N177" s="34"/>
       <c r="O177" s="33"/>
-      <c r="P177" s="32"/>
-      <c r="Q177" s="32"/>
-      <c r="R177" s="32"/>
       <c r="S177" s="33"/>
     </row>
     <row r="178" spans="1:19">
@@ -6244,9 +6634,6 @@
       <c r="M178" s="32"/>
       <c r="N178" s="34"/>
       <c r="O178" s="33"/>
-      <c r="P178" s="32"/>
-      <c r="Q178" s="32"/>
-      <c r="R178" s="32"/>
       <c r="S178" s="33"/>
     </row>
     <row r="179" spans="1:19">
@@ -6265,9 +6652,6 @@
       <c r="M179" s="32"/>
       <c r="N179" s="34"/>
       <c r="O179" s="33"/>
-      <c r="P179" s="32"/>
-      <c r="Q179" s="32"/>
-      <c r="R179" s="32"/>
       <c r="S179" s="33"/>
     </row>
     <row r="180" spans="1:19">
@@ -6286,9 +6670,6 @@
       <c r="M180" s="32"/>
       <c r="N180" s="34"/>
       <c r="O180" s="33"/>
-      <c r="P180" s="32"/>
-      <c r="Q180" s="32"/>
-      <c r="R180" s="32"/>
       <c r="S180" s="33"/>
     </row>
     <row r="181" spans="1:19">
@@ -6848,78 +7229,6 @@
       <c r="N211" s="34"/>
       <c r="O211" s="33"/>
       <c r="S211" s="33"/>
-    </row>
-    <row r="212" spans="1:19">
-      <c r="A212" s="32"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="34"/>
-      <c r="I212" s="37"/>
-      <c r="J212" s="32"/>
-      <c r="K212" s="32"/>
-      <c r="L212" s="32"/>
-      <c r="M212" s="32"/>
-      <c r="N212" s="34"/>
-      <c r="O212" s="33"/>
-      <c r="S212" s="33"/>
-    </row>
-    <row r="213" spans="1:19">
-      <c r="A213" s="32"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="32"/>
-      <c r="D213" s="32"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="34"/>
-      <c r="I213" s="37"/>
-      <c r="J213" s="32"/>
-      <c r="K213" s="32"/>
-      <c r="L213" s="32"/>
-      <c r="M213" s="32"/>
-      <c r="N213" s="34"/>
-      <c r="O213" s="33"/>
-      <c r="S213" s="33"/>
-    </row>
-    <row r="214" spans="1:19">
-      <c r="A214" s="32"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="32"/>
-      <c r="D214" s="32"/>
-      <c r="E214" s="32"/>
-      <c r="F214" s="34"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="34"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="32"/>
-      <c r="K214" s="32"/>
-      <c r="L214" s="32"/>
-      <c r="M214" s="32"/>
-      <c r="N214" s="34"/>
-      <c r="O214" s="33"/>
-      <c r="S214" s="33"/>
-    </row>
-    <row r="215" spans="1:19">
-      <c r="A215" s="32"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="32"/>
-      <c r="D215" s="32"/>
-      <c r="E215" s="32"/>
-      <c r="F215" s="34"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="34"/>
-      <c r="I215" s="37"/>
-      <c r="J215" s="32"/>
-      <c r="K215" s="32"/>
-      <c r="L215" s="32"/>
-      <c r="M215" s="32"/>
-      <c r="N215" s="34"/>
-      <c r="O215" s="33"/>
-      <c r="S215" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -6944,28 +7253,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
@@ -8219,36 +8528,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="5" t="s">
